--- a/Code/Results/Cases/Case_1_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41813290476427</v>
+        <v>17.41718995543362</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.220868299831361</v>
+        <v>7.755181548233864</v>
       </c>
       <c r="E2">
-        <v>8.986281503496468</v>
+        <v>14.49979653917049</v>
       </c>
       <c r="F2">
-        <v>33.15832360223074</v>
+        <v>43.97122994501682</v>
       </c>
       <c r="G2">
-        <v>44.03853904043547</v>
+        <v>52.82079700436275</v>
       </c>
       <c r="H2">
-        <v>13.94335265174647</v>
+        <v>20.2283635944198</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.238639884195666</v>
+        <v>11.49507952569678</v>
       </c>
       <c r="K2">
-        <v>12.92922595681649</v>
+        <v>11.33238299099355</v>
       </c>
       <c r="L2">
-        <v>6.301897593091642</v>
+        <v>9.564494407665732</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82697952727366</v>
+        <v>17.34635167588763</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.191768967700125</v>
+        <v>7.762401211725274</v>
       </c>
       <c r="E3">
-        <v>9.025472981502741</v>
+        <v>14.52282562918954</v>
       </c>
       <c r="F3">
-        <v>32.62952263252377</v>
+        <v>43.97058517885589</v>
       </c>
       <c r="G3">
-        <v>43.03135319738134</v>
+        <v>52.7298647210302</v>
       </c>
       <c r="H3">
-        <v>13.86051129352223</v>
+        <v>20.2555147304697</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.288079215347152</v>
+        <v>11.51216733116932</v>
       </c>
       <c r="K3">
-        <v>12.12603675604973</v>
+        <v>11.16613743602768</v>
       </c>
       <c r="L3">
-        <v>6.054027116708699</v>
+        <v>9.548551086356921</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.45743904355322</v>
+        <v>17.30634870736386</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.174966622192779</v>
+        <v>7.76745505799439</v>
       </c>
       <c r="E4">
-        <v>9.051649555966561</v>
+        <v>14.53798551284394</v>
       </c>
       <c r="F4">
-        <v>32.32412965050623</v>
+        <v>43.97874373509062</v>
       </c>
       <c r="G4">
-        <v>42.43722679279626</v>
+        <v>52.68614867602369</v>
       </c>
       <c r="H4">
-        <v>13.81778721665497</v>
+        <v>20.27534863231163</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.319529483203381</v>
+        <v>11.52324755797173</v>
       </c>
       <c r="K4">
-        <v>11.60686242544678</v>
+        <v>11.06571748400558</v>
       </c>
       <c r="L4">
-        <v>5.899875658607955</v>
+        <v>9.54042635671566</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.30541037317356</v>
+        <v>17.29093849271833</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.168385421714178</v>
+        <v>7.769671107950447</v>
       </c>
       <c r="E5">
-        <v>9.062841627373071</v>
+        <v>14.54442026516896</v>
       </c>
       <c r="F5">
-        <v>32.20449944591228</v>
+        <v>43.98421924969553</v>
       </c>
       <c r="G5">
-        <v>42.20131146113081</v>
+        <v>52.6713883395638</v>
       </c>
       <c r="H5">
-        <v>13.80236417243546</v>
+        <v>20.28422568351464</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.332624064394125</v>
+        <v>11.52791113959607</v>
       </c>
       <c r="K5">
-        <v>11.38874729554541</v>
+        <v>11.02526648881118</v>
       </c>
       <c r="L5">
-        <v>5.836654504819245</v>
+        <v>9.537536910430573</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.28008610392661</v>
+        <v>17.2884338371441</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.167308625040659</v>
+        <v>7.77004854996454</v>
       </c>
       <c r="E6">
-        <v>9.064731586341223</v>
+        <v>14.54550428657571</v>
       </c>
       <c r="F6">
-        <v>32.18492492051445</v>
+        <v>43.98525833245963</v>
       </c>
       <c r="G6">
-        <v>42.16251443971095</v>
+        <v>52.66912203389522</v>
       </c>
       <c r="H6">
-        <v>13.79992145063351</v>
+        <v>20.28574767583692</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.334815311686482</v>
+        <v>11.52869449187383</v>
       </c>
       <c r="K6">
-        <v>11.35213407761287</v>
+        <v>11.01857966134541</v>
       </c>
       <c r="L6">
-        <v>5.826135131219617</v>
+        <v>9.537082653156329</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45539424964903</v>
+        <v>17.30613725423886</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.174876791612823</v>
+        <v>7.767484309913996</v>
       </c>
       <c r="E7">
-        <v>9.051798378960468</v>
+        <v>14.53807125299095</v>
       </c>
       <c r="F7">
-        <v>32.32249680945231</v>
+        <v>43.97880887231177</v>
       </c>
       <c r="G7">
-        <v>42.43401996162402</v>
+        <v>52.68593723847675</v>
       </c>
       <c r="H7">
-        <v>13.81757124906372</v>
+        <v>20.27546513530471</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.319704950176726</v>
+        <v>11.52330985169973</v>
       </c>
       <c r="K7">
-        <v>11.60394735735728</v>
+        <v>11.06516996911823</v>
       </c>
       <c r="L7">
-        <v>5.899024543262529</v>
+        <v>9.540385678612912</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2157863139341</v>
+        <v>17.39204839943698</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.21061269735031</v>
+        <v>7.757542267282795</v>
       </c>
       <c r="E8">
-        <v>8.999352229828334</v>
+        <v>14.50752558811363</v>
       </c>
       <c r="F8">
-        <v>32.97197279611262</v>
+        <v>43.96923229691138</v>
       </c>
       <c r="G8">
-        <v>43.68627600803815</v>
+        <v>52.78693399194715</v>
       </c>
       <c r="H8">
-        <v>13.91306371794258</v>
+        <v>20.23706839118352</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.255461380031447</v>
+        <v>11.50084954007952</v>
       </c>
       <c r="K8">
-        <v>12.65767751375064</v>
+        <v>11.27475087855665</v>
       </c>
       <c r="L8">
-        <v>6.216888556440927</v>
+        <v>9.558653491098115</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.64686269346867</v>
+        <v>17.58759902592701</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.289236410042321</v>
+        <v>7.742954329081633</v>
       </c>
       <c r="E9">
-        <v>8.913579784490446</v>
+        <v>14.45569564103225</v>
       </c>
       <c r="F9">
-        <v>34.39971310679169</v>
+        <v>44.01830183031989</v>
       </c>
       <c r="G9">
-        <v>46.33054816318698</v>
+        <v>53.08068679296596</v>
       </c>
       <c r="H9">
-        <v>14.16754793480668</v>
+        <v>20.18690087028645</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.138013407298439</v>
+        <v>11.46145502366601</v>
       </c>
       <c r="K9">
-        <v>14.51858369370481</v>
+        <v>11.69645510957863</v>
       </c>
       <c r="L9">
-        <v>6.998945118602366</v>
+        <v>9.607545656719656</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.65308576410336</v>
+        <v>17.74687098597473</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.352375795836807</v>
+        <v>7.735204152027969</v>
       </c>
       <c r="E10">
-        <v>8.86143826984849</v>
+        <v>14.42250480894243</v>
       </c>
       <c r="F10">
-        <v>35.5438257371444</v>
+        <v>44.09562472542324</v>
       </c>
       <c r="G10">
-        <v>48.38307269843148</v>
+        <v>53.35408787443846</v>
       </c>
       <c r="H10">
-        <v>14.39907135412037</v>
+        <v>20.16539917269507</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.056709445402157</v>
+        <v>11.43532233504487</v>
       </c>
       <c r="K10">
-        <v>15.76265762323251</v>
+        <v>12.00958546226404</v>
       </c>
       <c r="L10">
-        <v>7.572326491944385</v>
+        <v>9.651232107402624</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.09975738667345</v>
+        <v>17.82250321129718</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.382312272126333</v>
+        <v>7.732317448911892</v>
       </c>
       <c r="E11">
-        <v>8.840194036561821</v>
+        <v>14.40846039829864</v>
       </c>
       <c r="F11">
-        <v>36.08522110021977</v>
+        <v>44.13972086484745</v>
       </c>
       <c r="G11">
-        <v>49.33979033474575</v>
+        <v>53.49074981044335</v>
       </c>
       <c r="H11">
-        <v>14.51483598561962</v>
+        <v>20.15895706942327</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.020755132281614</v>
+        <v>11.42403899071069</v>
       </c>
       <c r="K11">
-        <v>16.30253374461057</v>
+        <v>12.15208371479825</v>
       </c>
       <c r="L11">
-        <v>7.821665060701287</v>
+        <v>9.672743652304112</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.26723528728614</v>
+        <v>17.85158108539466</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.393827536805682</v>
+        <v>7.731315742468878</v>
       </c>
       <c r="E12">
-        <v>8.832516003619959</v>
+        <v>14.403293240997</v>
       </c>
       <c r="F12">
-        <v>36.29326697708182</v>
+        <v>44.15769623033434</v>
       </c>
       <c r="G12">
-        <v>49.70533623236582</v>
+        <v>53.54424451572481</v>
       </c>
       <c r="H12">
-        <v>14.56023792427374</v>
+        <v>20.15699786864088</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.007284313357322</v>
+        <v>11.41985282652525</v>
       </c>
       <c r="K12">
-        <v>16.50328734017137</v>
+        <v>12.20599764831363</v>
       </c>
       <c r="L12">
-        <v>7.914453629354977</v>
+        <v>9.681120534010372</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.23124103171138</v>
+        <v>17.8452995007156</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.391339479251702</v>
+        <v>7.731527418886914</v>
       </c>
       <c r="E13">
-        <v>8.834153114295166</v>
+        <v>14.40439936513353</v>
       </c>
       <c r="F13">
-        <v>36.24832532353501</v>
+        <v>44.15376821822537</v>
       </c>
       <c r="G13">
-        <v>49.62646499810867</v>
+        <v>53.53264632078655</v>
       </c>
       <c r="H13">
-        <v>14.55038921363505</v>
+        <v>20.15739845670542</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.010179142908239</v>
+        <v>11.42075054599284</v>
       </c>
       <c r="K13">
-        <v>16.46021431713148</v>
+        <v>12.19438926438189</v>
       </c>
       <c r="L13">
-        <v>7.894542058274119</v>
+        <v>9.679306229198787</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.11356965700687</v>
+        <v>17.8248868096473</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.383256024719894</v>
+        <v>7.732233208198435</v>
       </c>
       <c r="E14">
-        <v>8.839554945787194</v>
+        <v>14.40803226630482</v>
       </c>
       <c r="F14">
-        <v>36.10227625559492</v>
+        <v>44.14117415098956</v>
       </c>
       <c r="G14">
-        <v>49.369798916588</v>
+        <v>53.49511604797748</v>
       </c>
       <c r="H14">
-        <v>14.51853951350968</v>
+        <v>20.15878625910571</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.019644011412209</v>
+        <v>11.4236928589367</v>
       </c>
       <c r="K14">
-        <v>16.31912334960301</v>
+        <v>12.15652049719539</v>
       </c>
       <c r="L14">
-        <v>7.829331363926362</v>
+        <v>9.673428222946011</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.04127358975803</v>
+        <v>17.81243984381475</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.378328128029786</v>
+        <v>7.732677417455967</v>
       </c>
       <c r="E15">
-        <v>8.842911814822701</v>
+        <v>14.41027719498864</v>
       </c>
       <c r="F15">
-        <v>36.01321252022603</v>
+        <v>44.13362604754797</v>
       </c>
       <c r="G15">
-        <v>49.21300674904089</v>
+        <v>53.47235402222095</v>
       </c>
       <c r="H15">
-        <v>14.4992362666976</v>
+        <v>20.15969887597218</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.025460187257409</v>
+        <v>11.4255063775665</v>
       </c>
       <c r="K15">
-        <v>16.23222303183009</v>
+        <v>12.13331705937215</v>
       </c>
       <c r="L15">
-        <v>7.789176339298116</v>
+        <v>9.669857704894657</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.62366507081407</v>
+        <v>17.74199055453464</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.350444162426357</v>
+        <v>7.735405622979481</v>
       </c>
       <c r="E16">
-        <v>8.862877335888017</v>
+        <v>14.42344382054138</v>
       </c>
       <c r="F16">
-        <v>35.50886710366031</v>
+        <v>44.09292199452135</v>
       </c>
       <c r="G16">
-        <v>48.32100697915764</v>
+        <v>53.34540205710351</v>
       </c>
       <c r="H16">
-        <v>14.39172133364515</v>
+        <v>20.16588738534665</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.059079558231658</v>
+        <v>11.43607186405414</v>
       </c>
       <c r="K16">
-        <v>15.72685613482972</v>
+        <v>12.00026922413401</v>
       </c>
       <c r="L16">
-        <v>7.555802121199882</v>
+        <v>9.649858852291075</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.36458063872291</v>
+        <v>17.69957268274808</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.333652060915768</v>
+        <v>7.737242608487964</v>
       </c>
       <c r="E17">
-        <v>8.875766850478664</v>
+        <v>14.43179082330875</v>
       </c>
       <c r="F17">
-        <v>35.20484133223868</v>
+        <v>44.07023264496946</v>
       </c>
       <c r="G17">
-        <v>47.77964284584594</v>
+        <v>53.27065309262977</v>
       </c>
       <c r="H17">
-        <v>14.32848336772812</v>
+        <v>20.17053920648361</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.079965294184806</v>
+        <v>11.44270804407102</v>
       </c>
       <c r="K17">
-        <v>15.41019658528707</v>
+        <v>11.91862291967657</v>
       </c>
       <c r="L17">
-        <v>7.409704751447302</v>
+        <v>9.638006589423943</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21452374068153</v>
+        <v>17.67547544576712</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.324107651316488</v>
+        <v>7.738359356582304</v>
       </c>
       <c r="E18">
-        <v>8.883412835842144</v>
+        <v>14.4366910574779</v>
       </c>
       <c r="F18">
-        <v>35.03194240021899</v>
+        <v>44.05802249096931</v>
       </c>
       <c r="G18">
-        <v>47.47043225468676</v>
+        <v>53.22881787655827</v>
       </c>
       <c r="H18">
-        <v>14.29308974903165</v>
+        <v>20.17352910871099</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.092075533633042</v>
+        <v>11.44658192221359</v>
       </c>
       <c r="K18">
-        <v>15.22560534342658</v>
+        <v>11.87167035526705</v>
       </c>
       <c r="L18">
-        <v>7.324589730639781</v>
+        <v>9.631343987659708</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.16354139747579</v>
+        <v>17.66736871141697</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.320895531439252</v>
+        <v>7.738747814770064</v>
       </c>
       <c r="E19">
-        <v>8.886041216759976</v>
+        <v>14.438367254015</v>
       </c>
       <c r="F19">
-        <v>34.97373940456139</v>
+        <v>44.05403279872526</v>
       </c>
       <c r="G19">
-        <v>47.36611320831476</v>
+        <v>53.21485282385969</v>
       </c>
       <c r="H19">
-        <v>14.28127236807922</v>
+        <v>20.17459541272354</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.096192685908022</v>
+        <v>11.44790333775678</v>
       </c>
       <c r="K19">
-        <v>15.1626821844096</v>
+        <v>11.85577613462062</v>
       </c>
       <c r="L19">
-        <v>7.295584520288731</v>
+        <v>9.629114819733886</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.39226870985044</v>
+        <v>17.70405718611956</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.335427784974769</v>
+        <v>7.737040834864853</v>
       </c>
       <c r="E20">
-        <v>8.8743706249456</v>
+        <v>14.43089200093395</v>
       </c>
       <c r="F20">
-        <v>35.23700152206021</v>
+        <v>44.07256104985124</v>
       </c>
       <c r="G20">
-        <v>47.83704809547114</v>
+        <v>53.27849051843191</v>
       </c>
       <c r="H20">
-        <v>14.33511336600425</v>
+        <v>20.17001148208421</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.077731928469114</v>
+        <v>11.44199572254184</v>
       </c>
       <c r="K20">
-        <v>15.44415941071912</v>
+        <v>11.92731385870579</v>
       </c>
       <c r="L20">
-        <v>7.425369075145814</v>
+        <v>9.639252325193681</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.14817832565024</v>
+        <v>17.8308707945248</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.385625434633217</v>
+        <v>7.732023423101247</v>
       </c>
       <c r="E21">
-        <v>8.83795825411902</v>
+        <v>14.40696109637167</v>
       </c>
       <c r="F21">
-        <v>36.14509192637109</v>
+        <v>44.14483872517769</v>
       </c>
       <c r="G21">
-        <v>49.44509981739537</v>
+        <v>53.50609247338555</v>
       </c>
       <c r="H21">
-        <v>14.52785157861376</v>
+        <v>20.15836559301025</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.016860066536747</v>
+        <v>11.42282628287319</v>
       </c>
       <c r="K21">
-        <v>16.36066468533421</v>
+        <v>12.16764517706277</v>
       </c>
       <c r="L21">
-        <v>7.848529373916378</v>
+        <v>9.675148507066938</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.63247318445532</v>
+        <v>17.91629191845121</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.419478391177573</v>
+        <v>7.729276939826876</v>
       </c>
       <c r="E22">
-        <v>8.816303790967474</v>
+        <v>14.39220171605458</v>
       </c>
       <c r="F22">
-        <v>36.75626706652616</v>
+        <v>44.19951686755271</v>
       </c>
       <c r="G22">
-        <v>50.51504159096552</v>
+        <v>53.66499493408564</v>
       </c>
       <c r="H22">
-        <v>14.66296594735814</v>
+        <v>20.15355372839413</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.977915896389657</v>
+        <v>11.41080252328886</v>
       </c>
       <c r="K22">
-        <v>16.9382049262517</v>
+        <v>12.32441717527018</v>
       </c>
       <c r="L22">
-        <v>8.115599015048316</v>
+        <v>9.699952408616788</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.3749060228008</v>
+        <v>17.87047516285972</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.401313040799733</v>
+        <v>7.730694198034723</v>
       </c>
       <c r="E23">
-        <v>8.827661266269486</v>
+        <v>14.39999862388141</v>
       </c>
       <c r="F23">
-        <v>36.42844354503664</v>
+        <v>44.16965551848796</v>
       </c>
       <c r="G23">
-        <v>49.94226522428509</v>
+        <v>53.57926529643957</v>
       </c>
       <c r="H23">
-        <v>14.58999460575535</v>
+        <v>20.15586577035966</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.998625718339293</v>
+        <v>11.41717377261794</v>
       </c>
       <c r="K23">
-        <v>16.63190087878422</v>
+        <v>12.24078993925983</v>
       </c>
       <c r="L23">
-        <v>7.973918547769715</v>
+        <v>9.686592761664055</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.37975437121705</v>
+        <v>17.70202883932507</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.334624639088378</v>
+        <v>7.7371318678195</v>
       </c>
       <c r="E24">
-        <v>8.875001125370279</v>
+        <v>14.43129804256451</v>
       </c>
       <c r="F24">
-        <v>35.22245601620617</v>
+        <v>44.07150577882516</v>
       </c>
       <c r="G24">
-        <v>47.81108886454444</v>
+        <v>53.27494366856178</v>
       </c>
       <c r="H24">
-        <v>14.33211294981012</v>
+        <v>20.17024908344303</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.078741312760433</v>
+        <v>11.44231758039123</v>
       </c>
       <c r="K24">
-        <v>15.42881273171054</v>
+        <v>11.92338472150143</v>
       </c>
       <c r="L24">
-        <v>7.418290729880319</v>
+        <v>9.638688656033109</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.26713758515607</v>
+        <v>17.53188827386623</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.26703613256609</v>
+        <v>7.746377805510979</v>
       </c>
       <c r="E25">
-        <v>8.934909837871446</v>
+        <v>14.46885628728553</v>
       </c>
       <c r="F25">
-        <v>33.99683565985259</v>
+        <v>43.9977685126988</v>
       </c>
       <c r="G25">
-        <v>45.59557047680438</v>
+        <v>52.99104112629395</v>
       </c>
       <c r="H25">
-        <v>14.09113574643119</v>
+        <v>20.19777787098662</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.168894587596662</v>
+        <v>11.47161698936926</v>
       </c>
       <c r="K25">
-        <v>14.03697324858467</v>
+        <v>11.58156127104012</v>
       </c>
       <c r="L25">
-        <v>6.777477822810919</v>
+        <v>9.592939607993239</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.41718995543362</v>
+        <v>13.41813290476426</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.755181548233864</v>
+        <v>4.220868299831342</v>
       </c>
       <c r="E2">
-        <v>14.49979653917049</v>
+        <v>8.986281503496464</v>
       </c>
       <c r="F2">
-        <v>43.97122994501682</v>
+        <v>33.15832360223082</v>
       </c>
       <c r="G2">
-        <v>52.82079700436275</v>
+        <v>44.03853904043552</v>
       </c>
       <c r="H2">
-        <v>20.2283635944198</v>
+        <v>13.94335265174647</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.49507952569678</v>
+        <v>7.238639884195668</v>
       </c>
       <c r="K2">
-        <v>11.33238299099355</v>
+        <v>12.92922595681642</v>
       </c>
       <c r="L2">
-        <v>9.564494407665732</v>
+        <v>6.301897593091696</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.34635167588763</v>
+        <v>12.82697952727367</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.762401211725274</v>
+        <v>4.191768967699929</v>
       </c>
       <c r="E3">
-        <v>14.52282562918954</v>
+        <v>9.025472981502743</v>
       </c>
       <c r="F3">
-        <v>43.97058517885589</v>
+        <v>32.62952263252355</v>
       </c>
       <c r="G3">
-        <v>52.7298647210302</v>
+        <v>43.03135319738129</v>
       </c>
       <c r="H3">
-        <v>20.2555147304697</v>
+        <v>13.86051129352219</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.51216733116932</v>
+        <v>7.288079215347283</v>
       </c>
       <c r="K3">
-        <v>11.16613743602768</v>
+        <v>12.12603675604979</v>
       </c>
       <c r="L3">
-        <v>9.548551086356921</v>
+        <v>6.054027116708633</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.30634870736386</v>
+        <v>12.45743904355323</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.76745505799439</v>
+        <v>4.174966622192584</v>
       </c>
       <c r="E4">
-        <v>14.53798551284394</v>
+        <v>9.051649555966309</v>
       </c>
       <c r="F4">
-        <v>43.97874373509062</v>
+        <v>32.32412965050611</v>
       </c>
       <c r="G4">
-        <v>52.68614867602369</v>
+        <v>42.43722679279633</v>
       </c>
       <c r="H4">
-        <v>20.27534863231163</v>
+        <v>13.81778721665487</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.52324755797173</v>
+        <v>7.319529483203284</v>
       </c>
       <c r="K4">
-        <v>11.06571748400558</v>
+        <v>11.60686242544679</v>
       </c>
       <c r="L4">
-        <v>9.54042635671566</v>
+        <v>5.899875658607852</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.29093849271833</v>
+        <v>12.3054103731736</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.769671107950447</v>
+        <v>4.168385421714186</v>
       </c>
       <c r="E5">
-        <v>14.54442026516896</v>
+        <v>9.062841627373141</v>
       </c>
       <c r="F5">
-        <v>43.98421924969553</v>
+        <v>32.20449944591248</v>
       </c>
       <c r="G5">
-        <v>52.6713883395638</v>
+        <v>42.20131146113108</v>
       </c>
       <c r="H5">
-        <v>20.28422568351464</v>
+        <v>13.80236417243552</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.52791113959607</v>
+        <v>7.332624064394125</v>
       </c>
       <c r="K5">
-        <v>11.02526648881118</v>
+        <v>11.38874729554538</v>
       </c>
       <c r="L5">
-        <v>9.537536910430573</v>
+        <v>5.836654504819238</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.2884338371441</v>
+        <v>12.28008610392663</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.77004854996454</v>
+        <v>4.167308625040711</v>
       </c>
       <c r="E6">
-        <v>14.54550428657571</v>
+        <v>9.064731586341157</v>
       </c>
       <c r="F6">
-        <v>43.98525833245963</v>
+        <v>32.1849249205145</v>
       </c>
       <c r="G6">
-        <v>52.66912203389522</v>
+        <v>42.16251443971088</v>
       </c>
       <c r="H6">
-        <v>20.28574767583692</v>
+        <v>13.79992145063361</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.52869449187383</v>
+        <v>7.33481531168642</v>
       </c>
       <c r="K6">
-        <v>11.01857966134541</v>
+        <v>11.35213407761286</v>
       </c>
       <c r="L6">
-        <v>9.537082653156329</v>
+        <v>5.826135131219583</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.30613725423886</v>
+        <v>12.45539424964911</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.767484309913996</v>
+        <v>4.174876791612888</v>
       </c>
       <c r="E7">
-        <v>14.53807125299095</v>
+        <v>9.051798378960529</v>
       </c>
       <c r="F7">
-        <v>43.97880887231177</v>
+        <v>32.32249680945241</v>
       </c>
       <c r="G7">
-        <v>52.68593723847675</v>
+        <v>42.4340199616243</v>
       </c>
       <c r="H7">
-        <v>20.27546513530471</v>
+        <v>13.81757124906372</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.52330985169973</v>
+        <v>7.319704950176726</v>
       </c>
       <c r="K7">
-        <v>11.06516996911823</v>
+        <v>11.60394735735727</v>
       </c>
       <c r="L7">
-        <v>9.540385678612912</v>
+        <v>5.899024543262512</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.39204839943698</v>
+        <v>13.21578631393406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.757542267282795</v>
+        <v>4.210612697350363</v>
       </c>
       <c r="E8">
-        <v>14.50752558811363</v>
+        <v>8.999352229828272</v>
       </c>
       <c r="F8">
-        <v>43.96923229691138</v>
+        <v>32.97197279611257</v>
       </c>
       <c r="G8">
-        <v>52.78693399194715</v>
+        <v>43.68627600803808</v>
       </c>
       <c r="H8">
-        <v>20.23706839118352</v>
+        <v>13.91306371794248</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.50084954007952</v>
+        <v>7.255461380031318</v>
       </c>
       <c r="K8">
-        <v>11.27475087855665</v>
+        <v>12.65767751375065</v>
       </c>
       <c r="L8">
-        <v>9.558653491098115</v>
+        <v>6.216888556440884</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.58759902592701</v>
+        <v>14.64686269346865</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.742954329081633</v>
+        <v>4.289236410042325</v>
       </c>
       <c r="E9">
-        <v>14.45569564103225</v>
+        <v>8.913579784490382</v>
       </c>
       <c r="F9">
-        <v>44.01830183031989</v>
+        <v>34.39971310679163</v>
       </c>
       <c r="G9">
-        <v>53.08068679296596</v>
+        <v>46.33054816318692</v>
       </c>
       <c r="H9">
-        <v>20.18690087028645</v>
+        <v>14.16754793480665</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.46145502366601</v>
+        <v>7.138013407298375</v>
       </c>
       <c r="K9">
-        <v>11.69645510957863</v>
+        <v>14.51858369370479</v>
       </c>
       <c r="L9">
-        <v>9.607545656719656</v>
+        <v>6.998945118602416</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.74687098597473</v>
+        <v>15.65308576410338</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.735204152027969</v>
+        <v>4.352375795836767</v>
       </c>
       <c r="E10">
-        <v>14.42250480894243</v>
+        <v>8.861438269848495</v>
       </c>
       <c r="F10">
-        <v>44.09562472542324</v>
+        <v>35.54382573714445</v>
       </c>
       <c r="G10">
-        <v>53.35408787443846</v>
+        <v>48.38307269843165</v>
       </c>
       <c r="H10">
-        <v>20.16539917269507</v>
+        <v>14.39907135412037</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.43532233504487</v>
+        <v>7.056709445402188</v>
       </c>
       <c r="K10">
-        <v>12.00958546226404</v>
+        <v>15.76265762323261</v>
       </c>
       <c r="L10">
-        <v>9.651232107402624</v>
+        <v>7.572326491944501</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.82250321129718</v>
+        <v>16.09975738667343</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.732317448911892</v>
+        <v>4.38231227212622</v>
       </c>
       <c r="E11">
-        <v>14.40846039829864</v>
+        <v>8.840194036561822</v>
       </c>
       <c r="F11">
-        <v>44.13972086484745</v>
+        <v>36.08522110021969</v>
       </c>
       <c r="G11">
-        <v>53.49074981044335</v>
+        <v>49.33979033474579</v>
       </c>
       <c r="H11">
-        <v>20.15895706942327</v>
+        <v>14.51483598561962</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.42403899071069</v>
+        <v>7.020755132281685</v>
       </c>
       <c r="K11">
-        <v>12.15208371479825</v>
+        <v>16.30253374461061</v>
       </c>
       <c r="L11">
-        <v>9.672743652304112</v>
+        <v>7.821665060701263</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.85158108539466</v>
+        <v>16.26723528728613</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.731315742468878</v>
+        <v>4.393827536805524</v>
       </c>
       <c r="E12">
-        <v>14.403293240997</v>
+        <v>8.83251600361984</v>
       </c>
       <c r="F12">
-        <v>44.15769623033434</v>
+        <v>36.29326697708177</v>
       </c>
       <c r="G12">
-        <v>53.54424451572481</v>
+        <v>49.70533623236582</v>
       </c>
       <c r="H12">
-        <v>20.15699786864088</v>
+        <v>14.56023792427365</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.41985282652525</v>
+        <v>7.007284313357295</v>
       </c>
       <c r="K12">
-        <v>12.20599764831363</v>
+        <v>16.50328734017137</v>
       </c>
       <c r="L12">
-        <v>9.681120534010372</v>
+        <v>7.914453629355066</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.8452995007156</v>
+        <v>16.2312410317114</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.731527418886914</v>
+        <v>4.391339479251648</v>
       </c>
       <c r="E13">
-        <v>14.40439936513353</v>
+        <v>8.834153114295239</v>
       </c>
       <c r="F13">
-        <v>44.15376821822537</v>
+        <v>36.24832532353511</v>
       </c>
       <c r="G13">
-        <v>53.53264632078655</v>
+        <v>49.62646499810874</v>
       </c>
       <c r="H13">
-        <v>20.15739845670542</v>
+        <v>14.55038921363515</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.42075054599284</v>
+        <v>7.010179142908308</v>
       </c>
       <c r="K13">
-        <v>12.19438926438189</v>
+        <v>16.46021431713145</v>
       </c>
       <c r="L13">
-        <v>9.679306229198787</v>
+        <v>7.894542058274119</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.8248868096473</v>
+        <v>16.11356965700689</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.732233208198435</v>
+        <v>4.383256024719886</v>
       </c>
       <c r="E14">
-        <v>14.40803226630482</v>
+        <v>8.839554945787254</v>
       </c>
       <c r="F14">
-        <v>44.14117415098956</v>
+        <v>36.102276255595</v>
       </c>
       <c r="G14">
-        <v>53.49511604797748</v>
+        <v>49.36979891658795</v>
       </c>
       <c r="H14">
-        <v>20.15878625910571</v>
+        <v>14.51853951350984</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.4236928589367</v>
+        <v>7.019644011412305</v>
       </c>
       <c r="K14">
-        <v>12.15652049719539</v>
+        <v>16.319123349603</v>
       </c>
       <c r="L14">
-        <v>9.673428222946011</v>
+        <v>7.829331363926428</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.81243984381475</v>
+        <v>16.04127358975802</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.732677417455967</v>
+        <v>4.378328128029902</v>
       </c>
       <c r="E15">
-        <v>14.41027719498864</v>
+        <v>8.842911814822767</v>
       </c>
       <c r="F15">
-        <v>44.13362604754797</v>
+        <v>36.013212520226</v>
       </c>
       <c r="G15">
-        <v>53.47235402222095</v>
+        <v>49.21300674904078</v>
       </c>
       <c r="H15">
-        <v>20.15969887597218</v>
+        <v>14.49923626669758</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.4255063775665</v>
+        <v>7.025460187257379</v>
       </c>
       <c r="K15">
-        <v>12.13331705937215</v>
+        <v>16.23222303183017</v>
       </c>
       <c r="L15">
-        <v>9.669857704894657</v>
+        <v>7.789176339298177</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.74199055453464</v>
+        <v>15.62366507081406</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.735405622979481</v>
+        <v>4.350444162426357</v>
       </c>
       <c r="E16">
-        <v>14.42344382054138</v>
+        <v>8.862877335887958</v>
       </c>
       <c r="F16">
-        <v>44.09292199452135</v>
+        <v>35.50886710366019</v>
       </c>
       <c r="G16">
-        <v>53.34540205710351</v>
+        <v>48.32100697915747</v>
       </c>
       <c r="H16">
-        <v>20.16588738534665</v>
+        <v>14.39172133364511</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.43607186405414</v>
+        <v>7.059079558231719</v>
       </c>
       <c r="K16">
-        <v>12.00026922413401</v>
+        <v>15.72685613482973</v>
       </c>
       <c r="L16">
-        <v>9.649858852291075</v>
+        <v>7.555802121199847</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.69957268274808</v>
+        <v>15.36458063872291</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.737242608487964</v>
+        <v>4.333652060915781</v>
       </c>
       <c r="E17">
-        <v>14.43179082330875</v>
+        <v>8.875766850478673</v>
       </c>
       <c r="F17">
-        <v>44.07023264496946</v>
+        <v>35.20484133223854</v>
       </c>
       <c r="G17">
-        <v>53.27065309262977</v>
+        <v>47.77964284584592</v>
       </c>
       <c r="H17">
-        <v>20.17053920648361</v>
+        <v>14.32848336772807</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.44270804407102</v>
+        <v>7.079965294184838</v>
       </c>
       <c r="K17">
-        <v>11.91862291967657</v>
+        <v>15.41019658528706</v>
       </c>
       <c r="L17">
-        <v>9.638006589423943</v>
+        <v>7.409704751447349</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.67547544576712</v>
+        <v>15.21452374068154</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.738359356582304</v>
+        <v>4.324107651316378</v>
       </c>
       <c r="E18">
-        <v>14.4366910574779</v>
+        <v>8.883412835842146</v>
       </c>
       <c r="F18">
-        <v>44.05802249096931</v>
+        <v>35.03194240021898</v>
       </c>
       <c r="G18">
-        <v>53.22881787655827</v>
+        <v>47.47043225468678</v>
       </c>
       <c r="H18">
-        <v>20.17352910871099</v>
+        <v>14.29308974903174</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.44658192221359</v>
+        <v>7.092075533633106</v>
       </c>
       <c r="K18">
-        <v>11.87167035526705</v>
+        <v>15.22560534342658</v>
       </c>
       <c r="L18">
-        <v>9.631343987659708</v>
+        <v>7.324589730639808</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.66736871141697</v>
+        <v>15.1635413974758</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.738747814770064</v>
+        <v>4.320895531439311</v>
       </c>
       <c r="E19">
-        <v>14.438367254015</v>
+        <v>8.886041216760034</v>
       </c>
       <c r="F19">
-        <v>44.05403279872526</v>
+        <v>34.97373940456141</v>
       </c>
       <c r="G19">
-        <v>53.21485282385969</v>
+        <v>47.36611320831475</v>
       </c>
       <c r="H19">
-        <v>20.17459541272354</v>
+        <v>14.28127236807932</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.44790333775678</v>
+        <v>7.096192685908051</v>
       </c>
       <c r="K19">
-        <v>11.85577613462062</v>
+        <v>15.16268218440958</v>
       </c>
       <c r="L19">
-        <v>9.629114819733886</v>
+        <v>7.295584520288746</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.70405718611956</v>
+        <v>15.39226870985053</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.737040834864853</v>
+        <v>4.33542778497466</v>
       </c>
       <c r="E20">
-        <v>14.43089200093395</v>
+        <v>8.874370624945668</v>
       </c>
       <c r="F20">
-        <v>44.07256104985124</v>
+        <v>35.23700152206031</v>
       </c>
       <c r="G20">
-        <v>53.27849051843191</v>
+        <v>47.83704809547137</v>
       </c>
       <c r="H20">
-        <v>20.17001148208421</v>
+        <v>14.33511336600425</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.44199572254184</v>
+        <v>7.077731928469211</v>
       </c>
       <c r="K20">
-        <v>11.92731385870579</v>
+        <v>15.44415941071902</v>
       </c>
       <c r="L20">
-        <v>9.639252325193681</v>
+        <v>7.425369075145833</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.8308707945248</v>
+        <v>16.14817832565027</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.732023423101247</v>
+        <v>4.385625434633217</v>
       </c>
       <c r="E21">
-        <v>14.40696109637167</v>
+        <v>8.837958254119025</v>
       </c>
       <c r="F21">
-        <v>44.14483872517769</v>
+        <v>36.14509192637113</v>
       </c>
       <c r="G21">
-        <v>53.50609247338555</v>
+        <v>49.44509981739556</v>
       </c>
       <c r="H21">
-        <v>20.15836559301025</v>
+        <v>14.52785157861373</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.42282628287319</v>
+        <v>7.016860066536751</v>
       </c>
       <c r="K21">
-        <v>12.16764517706277</v>
+        <v>16.3606646853342</v>
       </c>
       <c r="L21">
-        <v>9.675148507066938</v>
+        <v>7.848529373916384</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.91629191845121</v>
+        <v>16.6324731844553</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.729276939826876</v>
+        <v>4.41947839117742</v>
       </c>
       <c r="E22">
-        <v>14.39220171605458</v>
+        <v>8.816303790967476</v>
       </c>
       <c r="F22">
-        <v>44.19951686755271</v>
+        <v>36.75626706652618</v>
       </c>
       <c r="G22">
-        <v>53.66499493408564</v>
+        <v>50.51504159096552</v>
       </c>
       <c r="H22">
-        <v>20.15355372839413</v>
+        <v>14.66296594735816</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.41080252328886</v>
+        <v>6.977915896389683</v>
       </c>
       <c r="K22">
-        <v>12.32441717527018</v>
+        <v>16.93820492625162</v>
       </c>
       <c r="L22">
-        <v>9.699952408616788</v>
+        <v>8.115599015048238</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.87047516285972</v>
+        <v>16.37490602280078</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.730694198034723</v>
+        <v>4.401313040799733</v>
       </c>
       <c r="E23">
-        <v>14.39999862388141</v>
+        <v>8.827661266269358</v>
       </c>
       <c r="F23">
-        <v>44.16965551848796</v>
+        <v>36.42844354503664</v>
       </c>
       <c r="G23">
-        <v>53.57926529643957</v>
+        <v>49.94226522428509</v>
       </c>
       <c r="H23">
-        <v>20.15586577035966</v>
+        <v>14.58999460575535</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.41717377261794</v>
+        <v>6.998625718339127</v>
       </c>
       <c r="K23">
-        <v>12.24078993925983</v>
+        <v>16.63190087878418</v>
       </c>
       <c r="L23">
-        <v>9.686592761664055</v>
+        <v>7.973918547769741</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.70202883932507</v>
+        <v>15.37975437121701</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.7371318678195</v>
+        <v>4.334624639088378</v>
       </c>
       <c r="E24">
-        <v>14.43129804256451</v>
+        <v>8.875001125370149</v>
       </c>
       <c r="F24">
-        <v>44.07150577882516</v>
+        <v>35.22245601620607</v>
       </c>
       <c r="G24">
-        <v>53.27494366856178</v>
+        <v>47.81108886454437</v>
       </c>
       <c r="H24">
-        <v>20.17024908344303</v>
+        <v>14.33211294981013</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.44231758039123</v>
+        <v>7.078741312760399</v>
       </c>
       <c r="K24">
-        <v>11.92338472150143</v>
+        <v>15.42881273171054</v>
       </c>
       <c r="L24">
-        <v>9.638688656033109</v>
+        <v>7.418290729880314</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.53188827386623</v>
+        <v>14.26713758515605</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.746377805510979</v>
+        <v>4.267036132566141</v>
       </c>
       <c r="E25">
-        <v>14.46885628728553</v>
+        <v>8.934909837871572</v>
       </c>
       <c r="F25">
-        <v>43.9977685126988</v>
+        <v>33.99683565985251</v>
       </c>
       <c r="G25">
-        <v>52.99104112629395</v>
+        <v>45.59557047680425</v>
       </c>
       <c r="H25">
-        <v>20.19777787098662</v>
+        <v>14.09113574643114</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.47161698936926</v>
+        <v>7.168894587596693</v>
       </c>
       <c r="K25">
-        <v>11.58156127104012</v>
+        <v>14.03697324858474</v>
       </c>
       <c r="L25">
-        <v>9.592939607993239</v>
+        <v>6.777477822810947</v>
       </c>
       <c r="M25">
         <v>0</v>
